--- a/results/xlsx/working_experience.xlsx
+++ b/results/xlsx/working_experience.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maula\Desktop\CESGS\CEO\results\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0340F-B102-4AD5-BA51-7095C52DAEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1393,8 +1399,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,13 +1463,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1501,7 +1515,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1535,6 +1549,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1569,9 +1584,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1744,14 +1760,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="25.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1839,7 +1860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1904,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1927,7 +1948,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +1992,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +2036,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2080,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2103,7 +2124,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2147,7 +2168,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2212,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2235,7 +2256,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2279,7 +2300,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2323,7 +2344,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2367,7 +2388,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2432,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2455,7 +2476,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2499,7 +2520,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2543,7 +2564,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2587,7 +2608,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2631,7 +2652,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2675,7 +2696,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2719,7 +2740,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2763,7 +2784,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2807,7 +2828,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2851,7 +2872,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2895,7 +2916,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +2960,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2983,7 +3004,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3048,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3071,7 +3092,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -3115,7 +3136,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -3159,7 +3180,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3203,7 +3224,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3268,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3335,7 +3356,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3379,7 +3400,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -3423,7 +3444,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3467,7 +3488,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -3511,7 +3532,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -3555,7 +3576,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3599,7 +3620,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3643,7 +3664,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3687,7 +3708,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3731,7 +3752,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +3796,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3819,7 +3840,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3863,7 +3884,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3907,7 +3928,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3951,7 +3972,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3995,7 +4016,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -4083,7 +4104,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -4127,7 +4148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -4171,7 +4192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -4215,7 +4236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -4259,7 +4280,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -4303,7 +4324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +4368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -4391,7 +4412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -4435,7 +4456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -4479,7 +4500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -4523,7 +4544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -4567,7 +4588,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -4611,7 +4632,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -4655,7 +4676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -4699,7 +4720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -4743,7 +4764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -4787,7 +4808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -4831,7 +4852,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -4875,7 +4896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -4919,7 +4940,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -4963,7 +4984,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -5007,7 +5028,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -5051,7 +5072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -5095,7 +5116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -5139,7 +5160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -5183,7 +5204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -5227,7 +5248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -5271,7 +5292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -5315,7 +5336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -5359,7 +5380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5403,7 +5424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -5447,7 +5468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -5491,7 +5512,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -5535,7 +5556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -5579,7 +5600,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -5623,7 +5644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5667,7 +5688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -5711,7 +5732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -5755,7 +5776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -5799,7 +5820,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -5843,7 +5864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -5887,7 +5908,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -5931,7 +5952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -5975,7 +5996,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -6019,7 +6040,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -6063,7 +6084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -6107,7 +6128,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -6151,7 +6172,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -6195,7 +6216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -6239,7 +6260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -6283,7 +6304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -6327,7 +6348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -6371,7 +6392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -6415,7 +6436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -6459,7 +6480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -6503,7 +6524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -6547,7 +6568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -6591,7 +6612,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -6635,7 +6656,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -6679,7 +6700,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -6723,7 +6744,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -6767,7 +6788,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -6811,7 +6832,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -6855,7 +6876,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -6899,7 +6920,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -6943,7 +6964,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -6987,7 +7008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -7031,7 +7052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -7075,7 +7096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -7119,7 +7140,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -7163,7 +7184,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -7207,7 +7228,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7251,7 +7272,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -7295,7 +7316,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>25</v>
       </c>
@@ -7339,7 +7360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -7383,7 +7404,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -7427,7 +7448,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -7471,7 +7492,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -7515,7 +7536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -7559,7 +7580,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -7603,7 +7624,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -7647,7 +7668,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -7691,7 +7712,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -7735,7 +7756,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -7779,7 +7800,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -7823,7 +7844,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -7867,7 +7888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -7911,7 +7932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -7955,7 +7976,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -7999,7 +8020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -8043,7 +8064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>28</v>
       </c>
@@ -8087,7 +8108,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -8131,7 +8152,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -8175,7 +8196,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -8219,7 +8240,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -8263,7 +8284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>28</v>
       </c>
@@ -8307,7 +8328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -8351,7 +8372,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -8395,7 +8416,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -8439,7 +8460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -8483,7 +8504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -8527,7 +8548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -8571,7 +8592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>29</v>
       </c>
@@ -8615,7 +8636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>29</v>
       </c>
@@ -8659,7 +8680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>29</v>
       </c>
@@ -8703,7 +8724,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>29</v>
       </c>
@@ -8747,7 +8768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>29</v>
       </c>
@@ -8791,7 +8812,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>29</v>
       </c>
@@ -8835,7 +8856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>29</v>
       </c>
@@ -8879,7 +8900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>29</v>
       </c>
@@ -8923,7 +8944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -8967,7 +8988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -9011,7 +9032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>30</v>
       </c>
@@ -9055,7 +9076,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>30</v>
       </c>
@@ -9099,7 +9120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -9143,7 +9164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>30</v>
       </c>
@@ -9187,7 +9208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -9231,7 +9252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -9275,7 +9296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>30</v>
       </c>
@@ -9319,7 +9340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -9363,7 +9384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -9407,7 +9428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -9451,7 +9472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>30</v>
       </c>
@@ -9495,7 +9516,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>30</v>
       </c>
@@ -9539,7 +9560,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>30</v>
       </c>
@@ -9583,7 +9604,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -9627,7 +9648,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -9671,7 +9692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -9715,7 +9736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -9759,7 +9780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -9803,7 +9824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -9847,7 +9868,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -9891,7 +9912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -9935,7 +9956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>32</v>
       </c>
@@ -9979,7 +10000,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -10023,7 +10044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -10067,7 +10088,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>33</v>
       </c>
@@ -10111,7 +10132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -10155,7 +10176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -10199,7 +10220,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -10243,7 +10264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -10287,7 +10308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -10331,7 +10352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -10375,7 +10396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>33</v>
       </c>
@@ -10419,7 +10440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -10463,7 +10484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -10507,7 +10528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -10551,7 +10572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -10595,7 +10616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -10639,7 +10660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>35</v>
       </c>
@@ -10683,7 +10704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>35</v>
       </c>
@@ -10727,7 +10748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>35</v>
       </c>
@@ -10771,7 +10792,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>35</v>
       </c>
@@ -10815,7 +10836,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>35</v>
       </c>
@@ -10859,7 +10880,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>35</v>
       </c>
@@ -10903,7 +10924,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>35</v>
       </c>
@@ -10947,7 +10968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>35</v>
       </c>
@@ -10991,7 +11012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -11035,7 +11056,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -11079,7 +11100,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>36</v>
       </c>
@@ -11123,7 +11144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>36</v>
       </c>
@@ -11167,7 +11188,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>36</v>
       </c>
@@ -11211,7 +11232,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>36</v>
       </c>
@@ -11255,7 +11276,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>36</v>
       </c>
@@ -11299,7 +11320,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>36</v>
       </c>
@@ -11343,7 +11364,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>36</v>
       </c>
@@ -11387,7 +11408,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>36</v>
       </c>
@@ -11431,7 +11452,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>36</v>
       </c>
@@ -11475,7 +11496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>36</v>
       </c>
@@ -11519,7 +11540,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -11563,7 +11584,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>36</v>
       </c>
@@ -11607,7 +11628,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>36</v>
       </c>
@@ -11651,7 +11672,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -11695,7 +11716,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>37</v>
       </c>
@@ -11739,7 +11760,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>37</v>
       </c>
@@ -11783,7 +11804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>37</v>
       </c>
@@ -11827,7 +11848,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -11871,7 +11892,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>37</v>
       </c>
@@ -11915,7 +11936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>37</v>
       </c>
@@ -11959,7 +11980,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -12003,7 +12024,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>37</v>
       </c>
@@ -12047,7 +12068,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>37</v>
       </c>
@@ -12091,7 +12112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -12135,7 +12156,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>38</v>
       </c>
@@ -12179,7 +12200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>38</v>
       </c>
@@ -12223,7 +12244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>38</v>
       </c>
@@ -12267,7 +12288,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>38</v>
       </c>
@@ -12311,7 +12332,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -12355,7 +12376,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -12399,7 +12420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -12443,7 +12464,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>39</v>
       </c>
@@ -12487,7 +12508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>39</v>
       </c>
@@ -12531,7 +12552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -12575,7 +12596,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -12619,7 +12640,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>39</v>
       </c>
@@ -12663,7 +12684,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -12707,7 +12728,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -12751,7 +12772,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -12795,7 +12816,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -12839,7 +12860,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>39</v>
       </c>
@@ -12883,7 +12904,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>39</v>
       </c>
@@ -12927,7 +12948,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>39</v>
       </c>
@@ -12971,7 +12992,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>39</v>
       </c>
@@ -13015,7 +13036,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>39</v>
       </c>
@@ -13059,7 +13080,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>40</v>
       </c>
@@ -13103,7 +13124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>40</v>
       </c>
@@ -13147,7 +13168,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>40</v>
       </c>
@@ -13191,7 +13212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -13235,7 +13256,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>40</v>
       </c>
@@ -13279,7 +13300,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -13323,7 +13344,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -13367,7 +13388,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>40</v>
       </c>
@@ -13411,7 +13432,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -13455,7 +13476,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>40</v>
       </c>
@@ -13499,7 +13520,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>41</v>
       </c>
@@ -13543,7 +13564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>41</v>
       </c>
@@ -13587,7 +13608,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>41</v>
       </c>
@@ -13631,7 +13652,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>41</v>
       </c>
@@ -13675,7 +13696,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -13719,7 +13740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -13763,7 +13784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>41</v>
       </c>
@@ -13807,7 +13828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>41</v>
       </c>
@@ -13851,7 +13872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>42</v>
       </c>
@@ -13895,7 +13916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>42</v>
       </c>
@@ -13939,7 +13960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>42</v>
       </c>
@@ -13983,7 +14004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>43</v>
       </c>
@@ -14027,7 +14048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>43</v>
       </c>
@@ -14071,7 +14092,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>43</v>
       </c>
@@ -14115,7 +14136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>43</v>
       </c>
@@ -14159,7 +14180,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>43</v>
       </c>
@@ -14203,7 +14224,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>44</v>
       </c>
@@ -14247,7 +14268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>44</v>
       </c>
@@ -14291,7 +14312,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>44</v>
       </c>
@@ -14335,7 +14356,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>44</v>
       </c>
@@ -14379,7 +14400,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>44</v>
       </c>
